--- a/Pearsons_CC/Python_Code/Reem_HS_RRB.xlsx
+++ b/Pearsons_CC/Python_Code/Reem_HS_RRB.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>0m HS</t>
   </si>
@@ -803,9 +803,6 @@
     <t>UTP11</t>
   </si>
   <si>
-    <t>LTV1</t>
-  </si>
-  <si>
     <t>DIP2</t>
   </si>
   <si>
@@ -822,9 +819,6 @@
   </si>
   <si>
     <t>CSL4</t>
-  </si>
-  <si>
-    <t>SRO9</t>
   </si>
   <si>
     <t>NHP2</t>
@@ -1205,15 +1199,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H279"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F281" sqref="F281"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7744,23 +7740,23 @@
       <c r="B252">
         <v>1</v>
       </c>
-      <c r="C252" t="e">
-        <v>#DIV/0!</v>
+      <c r="C252">
+        <v>-1.5134949999999998</v>
       </c>
       <c r="D252">
-        <v>-2.6634199999999999</v>
+        <v>-1.1195675</v>
       </c>
       <c r="E252">
-        <v>-1.0806736000000001</v>
+        <v>-0.75216470000000002</v>
       </c>
       <c r="F252">
-        <v>-1.1115714999999999</v>
+        <v>-0.53805049999999999</v>
       </c>
       <c r="G252">
-        <v>-0.30663050000000003</v>
+        <v>-0.17129749999999999</v>
       </c>
       <c r="H252">
-        <v>-0.63368049999999998</v>
+        <v>2.0930499999999998E-2</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -7771,22 +7767,22 @@
         <v>1</v>
       </c>
       <c r="C253">
-        <v>-1.5134949999999998</v>
+        <v>-1.5059399999999998</v>
       </c>
       <c r="D253">
-        <v>-1.1195675</v>
+        <v>-1.890965</v>
       </c>
       <c r="E253">
-        <v>-0.75216470000000002</v>
+        <v>-0.98805690000000013</v>
       </c>
       <c r="F253">
-        <v>-0.53805049999999999</v>
+        <v>-0.778837</v>
       </c>
       <c r="G253">
-        <v>-0.17129749999999999</v>
+        <v>-0.57077999999999995</v>
       </c>
       <c r="H253">
-        <v>2.0930499999999998E-2</v>
+        <v>0.20990599999999998</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -7797,22 +7793,22 @@
         <v>1</v>
       </c>
       <c r="C254">
-        <v>-1.5059399999999998</v>
+        <v>-0.68892449999999994</v>
       </c>
       <c r="D254">
-        <v>-1.890965</v>
+        <v>-0.16938829999999999</v>
       </c>
       <c r="E254">
-        <v>-0.98805690000000013</v>
+        <v>-5.0392260000000008E-2</v>
       </c>
       <c r="F254">
-        <v>-0.778837</v>
+        <v>-0.50123099999999998</v>
       </c>
       <c r="G254">
-        <v>-0.57077999999999995</v>
+        <v>0.58072699999999999</v>
       </c>
       <c r="H254">
-        <v>0.20990599999999998</v>
+        <v>0.28027099999999999</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -7823,22 +7819,22 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>-0.68892449999999994</v>
+        <v>-1.370565</v>
       </c>
       <c r="D255">
-        <v>-0.16938829999999999</v>
+        <v>-1.2891349999999999</v>
       </c>
       <c r="E255">
-        <v>-5.0392260000000008E-2</v>
+        <v>-0.22822376000000003</v>
       </c>
       <c r="F255">
-        <v>-0.50123099999999998</v>
+        <v>-0.80136099999999999</v>
       </c>
       <c r="G255">
-        <v>0.58072699999999999</v>
+        <v>-7.4997060000000004E-2</v>
       </c>
       <c r="H255">
-        <v>0.28027099999999999</v>
+        <v>-8.6531200000000003E-2</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -7849,22 +7845,22 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>-1.370565</v>
+        <v>-2.0257399999999999</v>
       </c>
       <c r="D256">
-        <v>-1.2891349999999999</v>
+        <v>-1.1009990000000001</v>
       </c>
       <c r="E256">
-        <v>-0.22822376000000003</v>
-      </c>
-      <c r="F256">
-        <v>-0.80136099999999999</v>
+        <v>-0.59947120999999992</v>
+      </c>
+      <c r="F256" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="G256">
-        <v>-7.4997060000000004E-2</v>
+        <v>2.9197549999999996E-2</v>
       </c>
       <c r="H256">
-        <v>-8.6531200000000003E-2</v>
+        <v>-7.328800000000002E-2</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -7875,22 +7871,22 @@
         <v>1</v>
       </c>
       <c r="C257">
-        <v>-2.0257399999999999</v>
+        <v>-0.91429499999999997</v>
       </c>
       <c r="D257">
-        <v>-1.1009990000000001</v>
+        <v>-0.51672099999999999</v>
       </c>
       <c r="E257">
-        <v>-0.59947120999999992</v>
+        <v>-0.22824059999999999</v>
       </c>
       <c r="F257" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G257">
-        <v>2.9197549999999996E-2</v>
+        <v>8.3965250000000005E-2</v>
       </c>
       <c r="H257">
-        <v>-7.328800000000002E-2</v>
+        <v>-1.9500500000000004E-2</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -7901,22 +7897,22 @@
         <v>1</v>
       </c>
       <c r="C258">
-        <v>-0.91429499999999997</v>
+        <v>-2.5586250000000001</v>
       </c>
       <c r="D258">
-        <v>-0.51672099999999999</v>
+        <v>-1.9267700000000001</v>
       </c>
       <c r="E258">
-        <v>-0.22824059999999999</v>
-      </c>
-      <c r="F258" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.92945899999999992</v>
+      </c>
+      <c r="F258">
+        <v>-1.0033675</v>
       </c>
       <c r="G258">
-        <v>8.3965250000000005E-2</v>
+        <v>-0.30448999999999998</v>
       </c>
       <c r="H258">
-        <v>-1.9500500000000004E-2</v>
+        <v>-0.27183599999999997</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -7926,23 +7922,23 @@
       <c r="B259">
         <v>1</v>
       </c>
-      <c r="C259" t="e">
-        <v>#DIV/0!</v>
+      <c r="C259">
+        <v>-0.78894700000000006</v>
       </c>
       <c r="D259">
-        <v>-0.46419600000000005</v>
+        <v>-0.6661379999999999</v>
       </c>
       <c r="E259">
-        <v>-0.47831645</v>
-      </c>
-      <c r="F259" t="e">
-        <v>#DIV/0!</v>
+        <v>0.50397685000000003</v>
+      </c>
+      <c r="F259">
+        <v>-0.2128845</v>
       </c>
       <c r="G259">
-        <v>-0.1876765</v>
+        <v>0.22370938500000001</v>
       </c>
       <c r="H259">
-        <v>5.4435999999999991E-2</v>
+        <v>0.45317550000000001</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -7953,22 +7949,22 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>-2.5586250000000001</v>
+        <v>0.17089660000000001</v>
       </c>
       <c r="D260">
-        <v>-1.9267700000000001</v>
+        <v>-9.2010950000000008E-2</v>
       </c>
       <c r="E260">
-        <v>-0.92945899999999992</v>
+        <v>0.153185714</v>
       </c>
       <c r="F260">
-        <v>-1.0033675</v>
+        <v>0.22478150000000002</v>
       </c>
       <c r="G260">
-        <v>-0.30448999999999998</v>
+        <v>0.12277779999999999</v>
       </c>
       <c r="H260">
-        <v>-0.27183599999999997</v>
+        <v>0.38367899999999999</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -7979,22 +7975,22 @@
         <v>1</v>
       </c>
       <c r="C261">
-        <v>-0.78894700000000006</v>
+        <v>-0.91545949999999998</v>
       </c>
       <c r="D261">
-        <v>-0.6661379999999999</v>
+        <v>-5.0951399999999994E-2</v>
       </c>
       <c r="E261">
-        <v>0.50397685000000003</v>
+        <v>-8.9830000000000007E-2</v>
       </c>
       <c r="F261">
-        <v>-0.2128845</v>
+        <v>0.42289399999999999</v>
       </c>
       <c r="G261">
-        <v>0.22370938500000001</v>
+        <v>0.4671225</v>
       </c>
       <c r="H261">
-        <v>0.45317550000000001</v>
+        <v>0.50770649999999995</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -8005,22 +8001,22 @@
         <v>1</v>
       </c>
       <c r="C262">
-        <v>0.17089660000000001</v>
+        <v>-2.2774650000000003</v>
       </c>
       <c r="D262">
-        <v>-9.2010950000000008E-2</v>
+        <v>-1.4583600000000001</v>
       </c>
       <c r="E262">
-        <v>0.153185714</v>
+        <v>-0.77067220000000014</v>
       </c>
       <c r="F262">
-        <v>0.22478150000000002</v>
+        <v>-0.89135200000000003</v>
       </c>
       <c r="G262">
-        <v>0.12277779999999999</v>
+        <v>-0.4493935</v>
       </c>
       <c r="H262">
-        <v>0.38367899999999999</v>
+        <v>-0.330486</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -8031,22 +8027,22 @@
         <v>1</v>
       </c>
       <c r="C263">
-        <v>-0.91545949999999998</v>
+        <v>-2.70472</v>
       </c>
       <c r="D263">
-        <v>-5.0951399999999994E-2</v>
+        <v>-1.10991</v>
       </c>
       <c r="E263">
-        <v>-8.9830000000000007E-2</v>
+        <v>-9.4454889999999979E-3</v>
       </c>
       <c r="F263">
-        <v>0.42289399999999999</v>
+        <v>-1.3902350000000001</v>
       </c>
       <c r="G263">
-        <v>0.4671225</v>
+        <v>0.21166499999999999</v>
       </c>
       <c r="H263">
-        <v>0.50770649999999995</v>
+        <v>0.55733149999999998</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -8057,22 +8053,22 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>-2.2774650000000003</v>
+        <v>-2.55524</v>
       </c>
       <c r="D264">
-        <v>-1.4583600000000001</v>
+        <v>-1.763355</v>
       </c>
       <c r="E264">
-        <v>-0.77067220000000014</v>
+        <v>-1.2622129000000002</v>
       </c>
       <c r="F264">
-        <v>-0.89135200000000003</v>
+        <v>-1.1881949999999999</v>
       </c>
       <c r="G264">
-        <v>-0.4493935</v>
+        <v>-0.70431650000000001</v>
       </c>
       <c r="H264">
-        <v>-0.330486</v>
+        <v>-0.77811649999999999</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -8083,22 +8079,22 @@
         <v>1</v>
       </c>
       <c r="C265">
-        <v>-2.70472</v>
+        <v>-0.70600149999999995</v>
       </c>
       <c r="D265">
-        <v>-1.10991</v>
+        <v>-0.37449699999999997</v>
       </c>
       <c r="E265">
-        <v>-9.4454889999999979E-3</v>
+        <v>-0.26729340000000001</v>
       </c>
       <c r="F265">
-        <v>-1.3902350000000001</v>
+        <v>1.9092499999999998E-2</v>
       </c>
       <c r="G265">
-        <v>0.21166499999999999</v>
+        <v>0.95473150000000007</v>
       </c>
       <c r="H265">
-        <v>0.55733149999999998</v>
+        <v>1.0640559999999999</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -8109,22 +8105,22 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>-2.55524</v>
+        <v>-1.1835015</v>
       </c>
       <c r="D266">
-        <v>-1.763355</v>
+        <v>-0.1254683</v>
       </c>
       <c r="E266">
-        <v>-1.2622129000000002</v>
+        <v>-0.25164714999999999</v>
       </c>
       <c r="F266">
-        <v>-1.1881949999999999</v>
+        <v>-0.1199477</v>
       </c>
       <c r="G266">
-        <v>-0.70431650000000001</v>
+        <v>0.47099150000000001</v>
       </c>
       <c r="H266">
-        <v>-0.77811649999999999</v>
+        <v>0.26936700000000002</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -8135,22 +8131,22 @@
         <v>1</v>
       </c>
       <c r="C267">
-        <v>-0.70600149999999995</v>
+        <v>-1.7042299999999999</v>
       </c>
       <c r="D267">
-        <v>-0.37449699999999997</v>
+        <v>-0.88297700000000001</v>
       </c>
       <c r="E267">
-        <v>-0.26729340000000001</v>
+        <v>-0.45351249999999999</v>
       </c>
       <c r="F267">
-        <v>1.9092499999999998E-2</v>
+        <v>-0.65774149999999998</v>
       </c>
       <c r="G267">
-        <v>0.95473150000000007</v>
+        <v>-0.20467200000000002</v>
       </c>
       <c r="H267">
-        <v>1.0640559999999999</v>
+        <v>7.7528950000000013E-2</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -8161,22 +8157,22 @@
         <v>1</v>
       </c>
       <c r="C268">
-        <v>-1.1835015</v>
+        <v>-3.5499200000000002</v>
       </c>
       <c r="D268">
-        <v>-0.1254683</v>
+        <v>-2.4554799999999997</v>
       </c>
       <c r="E268">
-        <v>-0.25164714999999999</v>
+        <v>-0.90245039999999999</v>
       </c>
       <c r="F268">
-        <v>-0.1199477</v>
+        <v>-1.6562600000000001</v>
       </c>
       <c r="G268">
-        <v>0.47099150000000001</v>
+        <v>-0.46549850000000004</v>
       </c>
       <c r="H268">
-        <v>0.26936700000000002</v>
+        <v>-0.32655100000000004</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -8187,22 +8183,22 @@
         <v>1</v>
       </c>
       <c r="C269">
-        <v>-1.7042299999999999</v>
+        <v>-3.7928350000000002</v>
       </c>
       <c r="D269">
-        <v>-0.88297700000000001</v>
+        <v>-2.2600250000000002</v>
       </c>
       <c r="E269">
-        <v>-0.45351249999999999</v>
+        <v>-1.0977180999999998</v>
       </c>
       <c r="F269">
-        <v>-0.65774149999999998</v>
+        <v>-1.857345</v>
       </c>
       <c r="G269">
-        <v>-0.20467200000000002</v>
+        <v>-0.15293899999999999</v>
       </c>
       <c r="H269">
-        <v>7.7528950000000013E-2</v>
+        <v>0.526972</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -8213,22 +8209,22 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>-3.5499200000000002</v>
+        <v>-1.76854</v>
       </c>
       <c r="D270">
-        <v>-2.4554799999999997</v>
+        <v>-1.2848930000000001</v>
       </c>
       <c r="E270">
-        <v>-0.90245039999999999</v>
+        <v>-0.24602464399999996</v>
       </c>
       <c r="F270">
-        <v>-1.6562600000000001</v>
+        <v>-0.9529875000000001</v>
       </c>
       <c r="G270">
-        <v>-0.46549850000000004</v>
+        <v>0.26957700000000001</v>
       </c>
       <c r="H270">
-        <v>-0.32655100000000004</v>
+        <v>0.418379</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -8239,22 +8235,22 @@
         <v>1</v>
       </c>
       <c r="C271">
-        <v>-3.7928350000000002</v>
+        <v>-2.0402800000000001</v>
       </c>
       <c r="D271">
-        <v>-2.2600250000000002</v>
+        <v>-1.62121</v>
       </c>
       <c r="E271">
-        <v>-1.0977180999999998</v>
+        <v>-0.99738959999999999</v>
       </c>
       <c r="F271">
-        <v>-1.857345</v>
+        <v>-1.286835</v>
       </c>
       <c r="G271">
-        <v>-0.15293899999999999</v>
+        <v>-1.262005</v>
       </c>
       <c r="H271">
-        <v>0.526972</v>
+        <v>-0.86114199999999996</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -8265,22 +8261,22 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>-1.76854</v>
+        <v>-1.4777100000000001</v>
       </c>
       <c r="D272">
-        <v>-1.2848930000000001</v>
+        <v>-1.2407089999999998</v>
       </c>
       <c r="E272">
-        <v>-0.24602464399999996</v>
+        <v>-0.70143589999999989</v>
       </c>
       <c r="F272">
-        <v>-0.9529875000000001</v>
+        <v>-0.6003385</v>
       </c>
       <c r="G272">
-        <v>0.26957700000000001</v>
+        <v>-0.31556899999999999</v>
       </c>
       <c r="H272">
-        <v>0.418379</v>
+        <v>-0.9511425</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -8291,22 +8287,22 @@
         <v>1</v>
       </c>
       <c r="C273">
-        <v>-2.0402800000000001</v>
+        <v>-2.67258</v>
       </c>
       <c r="D273">
-        <v>-1.62121</v>
+        <v>-1.961225</v>
       </c>
       <c r="E273">
-        <v>-0.99738959999999999</v>
+        <v>-0.93501929999999989</v>
       </c>
       <c r="F273">
-        <v>-1.286835</v>
+        <v>-1.597315</v>
       </c>
       <c r="G273">
-        <v>-1.262005</v>
+        <v>-1.072165</v>
       </c>
       <c r="H273">
-        <v>-0.86114199999999996</v>
+        <v>-0.93286350000000007</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -8317,22 +8313,22 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>-1.4777100000000001</v>
+        <v>-1.906825</v>
       </c>
       <c r="D274">
-        <v>-1.2407089999999998</v>
+        <v>-1.1497405000000001</v>
       </c>
       <c r="E274">
-        <v>-0.70143589999999989</v>
+        <v>-0.69300770000000012</v>
       </c>
       <c r="F274">
-        <v>-0.6003385</v>
+        <v>-0.53064849999999997</v>
       </c>
       <c r="G274">
-        <v>-0.31556899999999999</v>
+        <v>0.27325050000000001</v>
       </c>
       <c r="H274">
-        <v>-0.9511425</v>
+        <v>0.35512100000000002</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -8343,22 +8339,22 @@
         <v>1</v>
       </c>
       <c r="C275">
-        <v>-2.67258</v>
+        <v>-3.3232850000000003</v>
       </c>
       <c r="D275">
-        <v>-1.961225</v>
+        <v>-2.6561849999999998</v>
       </c>
       <c r="E275">
-        <v>-0.93501929999999989</v>
+        <v>-0.92066950000000003</v>
       </c>
       <c r="F275">
-        <v>-1.597315</v>
+        <v>-1.2285174999999999</v>
       </c>
       <c r="G275">
-        <v>-1.072165</v>
+        <v>-0.56048249999999999</v>
       </c>
       <c r="H275">
-        <v>-0.93286350000000007</v>
+        <v>-0.4526905</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -8369,22 +8365,22 @@
         <v>1</v>
       </c>
       <c r="C276">
-        <v>-1.906825</v>
+        <v>-1.8180900000000002</v>
       </c>
       <c r="D276">
-        <v>-1.1497405000000001</v>
+        <v>-0.56526600000000005</v>
       </c>
       <c r="E276">
-        <v>-0.69300770000000012</v>
+        <v>-1.2386000000000001</v>
       </c>
       <c r="F276">
-        <v>-0.53064849999999997</v>
+        <v>-9.3653049999999988E-2</v>
       </c>
       <c r="G276">
-        <v>0.27325050000000001</v>
+        <v>-0.75000899999999993</v>
       </c>
       <c r="H276">
-        <v>0.35512100000000002</v>
+        <v>-0.50787450000000001</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
@@ -8395,77 +8391,26 @@
         <v>1</v>
       </c>
       <c r="C277">
-        <v>-3.3232850000000003</v>
+        <v>-1.6532199999999999</v>
       </c>
       <c r="D277">
-        <v>-2.6561849999999998</v>
+        <v>-1.5074700000000001</v>
       </c>
       <c r="E277">
-        <v>-0.92066950000000003</v>
+        <v>-0.67542980000000008</v>
       </c>
       <c r="F277">
-        <v>-1.2285174999999999</v>
+        <v>-1.0108160000000002</v>
       </c>
       <c r="G277">
-        <v>-0.56048249999999999</v>
+        <v>-0.3299435</v>
       </c>
       <c r="H277">
-        <v>-0.4526905</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>283</v>
-      </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-      <c r="C278">
-        <v>-1.8180900000000002</v>
-      </c>
-      <c r="D278">
-        <v>-0.56526600000000005</v>
-      </c>
-      <c r="E278">
-        <v>-1.2386000000000001</v>
-      </c>
-      <c r="F278">
-        <v>-9.3653049999999988E-2</v>
-      </c>
-      <c r="G278">
-        <v>-0.75000899999999993</v>
-      </c>
-      <c r="H278">
-        <v>-0.50787450000000001</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>284</v>
-      </c>
-      <c r="B279">
-        <v>1</v>
-      </c>
-      <c r="C279">
-        <v>-1.6532199999999999</v>
-      </c>
-      <c r="D279">
-        <v>-1.5074700000000001</v>
-      </c>
-      <c r="E279">
-        <v>-0.67542980000000008</v>
-      </c>
-      <c r="F279">
-        <v>-1.0108160000000002</v>
-      </c>
-      <c r="G279">
-        <v>-0.3299435</v>
-      </c>
-      <c r="H279">
         <v>-0.40129399999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>